--- a/dashboards_v2/Logistics_Dashboard.xlsx
+++ b/dashboards_v2/Logistics_Dashboard.xlsx
@@ -7,12 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ROUTE_CONFIG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="LOGISTICS_DATA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ROUTE_OPTIMIZER" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="INVENTORY_TETRIS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SHIPMENT_BUILDER" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="UPLOAD_READY_LOGISTICS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ROUTE CONFIG" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LOGISTICS DATA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ROUTE OPTIMIZER" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INVENTORY TETRIS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SHIPMENT BUILDER" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CROSS REFERENCE" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="UPLOAD READY LOGISTICS" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -410,12 +411,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$A$8:$A$15</f>
+              <f>'INVENTORY TETRIS'!$A$8:$A$15</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$F$8:$F$15</f>
+              <f>'INVENTORY TETRIS'!$F$8:$F$15</f>
             </numRef>
           </val>
         </ser>
@@ -449,7 +450,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$G$8:$G$15</f>
+              <f>'INVENTORY TETRIS'!$G$8:$G$15</f>
             </numRef>
           </val>
         </ser>
@@ -554,12 +555,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$A$22:$A$29</f>
+              <f>'INVENTORY TETRIS'!$A$22:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$J$22:$J$29</f>
+              <f>'INVENTORY TETRIS'!$J$22:$J$29</f>
             </numRef>
           </val>
         </ser>
@@ -576,12 +577,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$A$22:$A$29</f>
+              <f>'INVENTORY TETRIS'!$A$22:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$K$22:$K$29</f>
+              <f>'INVENTORY TETRIS'!$K$22:$K$29</f>
             </numRef>
           </val>
         </ser>
@@ -672,12 +673,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$A$36:$A$43</f>
+              <f>'INVENTORY TETRIS'!$A$36:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$J$36:$J$43</f>
+              <f>'INVENTORY TETRIS'!$J$36:$J$43</f>
             </numRef>
           </val>
         </ser>
@@ -694,12 +695,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$A$36:$A$43</f>
+              <f>'INVENTORY TETRIS'!$A$36:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$K$36:$K$43</f>
+              <f>'INVENTORY TETRIS'!$K$36:$K$43</f>
             </numRef>
           </val>
         </ser>
@@ -790,12 +791,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$A$50:$A$57</f>
+              <f>'INVENTORY TETRIS'!$A$50:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$J$50:$J$57</f>
+              <f>'INVENTORY TETRIS'!$J$50:$J$57</f>
             </numRef>
           </val>
         </ser>
@@ -812,12 +813,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$A$50:$A$57</f>
+              <f>'INVENTORY TETRIS'!$A$50:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$K$50:$K$57</f>
+              <f>'INVENTORY TETRIS'!$K$50:$K$57</f>
             </numRef>
           </val>
         </ser>
@@ -908,12 +909,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$A$64:$A$71</f>
+              <f>'INVENTORY TETRIS'!$A$64:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$J$64:$J$71</f>
+              <f>'INVENTORY TETRIS'!$J$64:$J$71</f>
             </numRef>
           </val>
         </ser>
@@ -930,12 +931,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$A$64:$A$71</f>
+              <f>'INVENTORY TETRIS'!$A$64:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'INVENTORY_TETRIS'!$K$64:$K$71</f>
+              <f>'INVENTORY TETRIS'!$K$64:$K$71</f>
             </numRef>
           </val>
         </ser>
@@ -2118,11 +2119,13 @@
           <t>FN1</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0</v>
+      <c r="B8" s="6">
+        <f>'CROSS REFERENCE'!B6</f>
+        <v/>
+      </c>
+      <c r="C8" s="6">
+        <f>'CROSS REFERENCE'!C6</f>
+        <v/>
       </c>
       <c r="D8" s="6" t="n">
         <v>0</v>
@@ -2149,11 +2152,13 @@
           <t>FN2</t>
         </is>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0</v>
+      <c r="B9" s="6">
+        <f>'CROSS REFERENCE'!B6</f>
+        <v/>
+      </c>
+      <c r="C9" s="6">
+        <f>'CROSS REFERENCE'!C6</f>
+        <v/>
       </c>
       <c r="D9" s="6" t="n">
         <v>0</v>
@@ -2180,11 +2185,13 @@
           <t>FN3</t>
         </is>
       </c>
-      <c r="B10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0</v>
+      <c r="B10" s="6">
+        <f>'CROSS REFERENCE'!B6</f>
+        <v/>
+      </c>
+      <c r="C10" s="6">
+        <f>'CROSS REFERENCE'!C6</f>
+        <v/>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
@@ -2211,11 +2218,13 @@
           <t>FN4</t>
         </is>
       </c>
-      <c r="B11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0</v>
+      <c r="B11" s="6">
+        <f>'CROSS REFERENCE'!B6</f>
+        <v/>
+      </c>
+      <c r="C11" s="6">
+        <f>'CROSS REFERENCE'!C6</f>
+        <v/>
       </c>
       <c r="D11" s="6" t="n">
         <v>0</v>
@@ -2242,11 +2251,13 @@
           <t>FN5</t>
         </is>
       </c>
-      <c r="B12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0</v>
+      <c r="B12" s="6">
+        <f>'CROSS REFERENCE'!B6</f>
+        <v/>
+      </c>
+      <c r="C12" s="6">
+        <f>'CROSS REFERENCE'!C6</f>
+        <v/>
       </c>
       <c r="D12" s="6" t="n">
         <v>0</v>
@@ -2273,11 +2284,13 @@
           <t>FN6</t>
         </is>
       </c>
-      <c r="B13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>0</v>
+      <c r="B13" s="6">
+        <f>'CROSS REFERENCE'!B6</f>
+        <v/>
+      </c>
+      <c r="C13" s="6">
+        <f>'CROSS REFERENCE'!C6</f>
+        <v/>
       </c>
       <c r="D13" s="6" t="n">
         <v>0</v>
@@ -2304,11 +2317,13 @@
           <t>FN7</t>
         </is>
       </c>
-      <c r="B14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>0</v>
+      <c r="B14" s="6">
+        <f>'CROSS REFERENCE'!B6</f>
+        <v/>
+      </c>
+      <c r="C14" s="6">
+        <f>'CROSS REFERENCE'!C6</f>
+        <v/>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
@@ -2335,11 +2350,13 @@
           <t>FN8</t>
         </is>
       </c>
-      <c r="B15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>0</v>
+      <c r="B15" s="6">
+        <f>'CROSS REFERENCE'!B6</f>
+        <v/>
+      </c>
+      <c r="C15" s="6">
+        <f>'CROSS REFERENCE'!C6</f>
+        <v/>
       </c>
       <c r="D15" s="6" t="n">
         <v>0</v>
@@ -2456,11 +2473,13 @@
           <t>FN1</t>
         </is>
       </c>
-      <c r="B22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6" t="n">
-        <v>0</v>
+      <c r="B22" s="6">
+        <f>'CROSS REFERENCE'!B7</f>
+        <v/>
+      </c>
+      <c r="C22" s="6">
+        <f>'CROSS REFERENCE'!C7</f>
+        <v/>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2495,11 +2514,13 @@
           <t>FN2</t>
         </is>
       </c>
-      <c r="B23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>0</v>
+      <c r="B23" s="6">
+        <f>'CROSS REFERENCE'!B7</f>
+        <v/>
+      </c>
+      <c r="C23" s="6">
+        <f>'CROSS REFERENCE'!C7</f>
+        <v/>
       </c>
       <c r="D23" s="6" t="n">
         <v>0</v>
@@ -2534,11 +2555,13 @@
           <t>FN3</t>
         </is>
       </c>
-      <c r="B24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6" t="n">
-        <v>0</v>
+      <c r="B24" s="6">
+        <f>'CROSS REFERENCE'!B7</f>
+        <v/>
+      </c>
+      <c r="C24" s="6">
+        <f>'CROSS REFERENCE'!C7</f>
+        <v/>
       </c>
       <c r="D24" s="6" t="n">
         <v>0</v>
@@ -2573,11 +2596,13 @@
           <t>FN4</t>
         </is>
       </c>
-      <c r="B25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6" t="n">
-        <v>0</v>
+      <c r="B25" s="6">
+        <f>'CROSS REFERENCE'!B7</f>
+        <v/>
+      </c>
+      <c r="C25" s="6">
+        <f>'CROSS REFERENCE'!C7</f>
+        <v/>
       </c>
       <c r="D25" s="6" t="n">
         <v>0</v>
@@ -2612,11 +2637,13 @@
           <t>FN5</t>
         </is>
       </c>
-      <c r="B26" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6" t="n">
-        <v>0</v>
+      <c r="B26" s="6">
+        <f>'CROSS REFERENCE'!B7</f>
+        <v/>
+      </c>
+      <c r="C26" s="6">
+        <f>'CROSS REFERENCE'!C7</f>
+        <v/>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
@@ -2651,11 +2678,13 @@
           <t>FN6</t>
         </is>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>0</v>
+      <c r="B27" s="6">
+        <f>'CROSS REFERENCE'!B7</f>
+        <v/>
+      </c>
+      <c r="C27" s="6">
+        <f>'CROSS REFERENCE'!C7</f>
+        <v/>
       </c>
       <c r="D27" s="6" t="n">
         <v>0</v>
@@ -2690,11 +2719,13 @@
           <t>FN7</t>
         </is>
       </c>
-      <c r="B28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6" t="n">
-        <v>0</v>
+      <c r="B28" s="6">
+        <f>'CROSS REFERENCE'!B7</f>
+        <v/>
+      </c>
+      <c r="C28" s="6">
+        <f>'CROSS REFERENCE'!C7</f>
+        <v/>
       </c>
       <c r="D28" s="6" t="n">
         <v>0</v>
@@ -2729,11 +2760,13 @@
           <t>FN8</t>
         </is>
       </c>
-      <c r="B29" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6" t="n">
-        <v>0</v>
+      <c r="B29" s="6">
+        <f>'CROSS REFERENCE'!B7</f>
+        <v/>
+      </c>
+      <c r="C29" s="6">
+        <f>'CROSS REFERENCE'!C7</f>
+        <v/>
       </c>
       <c r="D29" s="6" t="n">
         <v>0</v>
@@ -2858,11 +2891,13 @@
           <t>FN1</t>
         </is>
       </c>
-      <c r="B36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6" t="n">
-        <v>0</v>
+      <c r="B36" s="6">
+        <f>'CROSS REFERENCE'!B8</f>
+        <v/>
+      </c>
+      <c r="C36" s="6">
+        <f>'CROSS REFERENCE'!C8</f>
+        <v/>
       </c>
       <c r="D36" s="6" t="n">
         <v>0</v>
@@ -2897,11 +2932,13 @@
           <t>FN2</t>
         </is>
       </c>
-      <c r="B37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="6" t="n">
-        <v>0</v>
+      <c r="B37" s="6">
+        <f>'CROSS REFERENCE'!B8</f>
+        <v/>
+      </c>
+      <c r="C37" s="6">
+        <f>'CROSS REFERENCE'!C8</f>
+        <v/>
       </c>
       <c r="D37" s="6" t="n">
         <v>0</v>
@@ -2936,11 +2973,13 @@
           <t>FN3</t>
         </is>
       </c>
-      <c r="B38" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6" t="n">
-        <v>0</v>
+      <c r="B38" s="6">
+        <f>'CROSS REFERENCE'!B8</f>
+        <v/>
+      </c>
+      <c r="C38" s="6">
+        <f>'CROSS REFERENCE'!C8</f>
+        <v/>
       </c>
       <c r="D38" s="6" t="n">
         <v>0</v>
@@ -2975,11 +3014,13 @@
           <t>FN4</t>
         </is>
       </c>
-      <c r="B39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="6" t="n">
-        <v>0</v>
+      <c r="B39" s="6">
+        <f>'CROSS REFERENCE'!B8</f>
+        <v/>
+      </c>
+      <c r="C39" s="6">
+        <f>'CROSS REFERENCE'!C8</f>
+        <v/>
       </c>
       <c r="D39" s="6" t="n">
         <v>0</v>
@@ -3014,11 +3055,13 @@
           <t>FN5</t>
         </is>
       </c>
-      <c r="B40" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6" t="n">
-        <v>0</v>
+      <c r="B40" s="6">
+        <f>'CROSS REFERENCE'!B8</f>
+        <v/>
+      </c>
+      <c r="C40" s="6">
+        <f>'CROSS REFERENCE'!C8</f>
+        <v/>
       </c>
       <c r="D40" s="6" t="n">
         <v>0</v>
@@ -3053,11 +3096,13 @@
           <t>FN6</t>
         </is>
       </c>
-      <c r="B41" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="6" t="n">
-        <v>0</v>
+      <c r="B41" s="6">
+        <f>'CROSS REFERENCE'!B8</f>
+        <v/>
+      </c>
+      <c r="C41" s="6">
+        <f>'CROSS REFERENCE'!C8</f>
+        <v/>
       </c>
       <c r="D41" s="6" t="n">
         <v>0</v>
@@ -3092,11 +3137,13 @@
           <t>FN7</t>
         </is>
       </c>
-      <c r="B42" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="6" t="n">
-        <v>0</v>
+      <c r="B42" s="6">
+        <f>'CROSS REFERENCE'!B8</f>
+        <v/>
+      </c>
+      <c r="C42" s="6">
+        <f>'CROSS REFERENCE'!C8</f>
+        <v/>
       </c>
       <c r="D42" s="6" t="n">
         <v>0</v>
@@ -3131,11 +3178,13 @@
           <t>FN8</t>
         </is>
       </c>
-      <c r="B43" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="6" t="n">
-        <v>0</v>
+      <c r="B43" s="6">
+        <f>'CROSS REFERENCE'!B8</f>
+        <v/>
+      </c>
+      <c r="C43" s="6">
+        <f>'CROSS REFERENCE'!C8</f>
+        <v/>
       </c>
       <c r="D43" s="6" t="n">
         <v>0</v>
@@ -3255,11 +3304,13 @@
           <t>FN1</t>
         </is>
       </c>
-      <c r="B50" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="6" t="n">
-        <v>0</v>
+      <c r="B50" s="6">
+        <f>'CROSS REFERENCE'!B9</f>
+        <v/>
+      </c>
+      <c r="C50" s="6">
+        <f>'CROSS REFERENCE'!C9</f>
+        <v/>
       </c>
       <c r="D50" s="6" t="n">
         <v>0</v>
@@ -3294,11 +3345,13 @@
           <t>FN2</t>
         </is>
       </c>
-      <c r="B51" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="6" t="n">
-        <v>0</v>
+      <c r="B51" s="6">
+        <f>'CROSS REFERENCE'!B9</f>
+        <v/>
+      </c>
+      <c r="C51" s="6">
+        <f>'CROSS REFERENCE'!C9</f>
+        <v/>
       </c>
       <c r="D51" s="6" t="n">
         <v>0</v>
@@ -3333,11 +3386,13 @@
           <t>FN3</t>
         </is>
       </c>
-      <c r="B52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" s="6" t="n">
-        <v>0</v>
+      <c r="B52" s="6">
+        <f>'CROSS REFERENCE'!B9</f>
+        <v/>
+      </c>
+      <c r="C52" s="6">
+        <f>'CROSS REFERENCE'!C9</f>
+        <v/>
       </c>
       <c r="D52" s="6" t="n">
         <v>0</v>
@@ -3372,11 +3427,13 @@
           <t>FN4</t>
         </is>
       </c>
-      <c r="B53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" s="6" t="n">
-        <v>0</v>
+      <c r="B53" s="6">
+        <f>'CROSS REFERENCE'!B9</f>
+        <v/>
+      </c>
+      <c r="C53" s="6">
+        <f>'CROSS REFERENCE'!C9</f>
+        <v/>
       </c>
       <c r="D53" s="6" t="n">
         <v>0</v>
@@ -3411,11 +3468,13 @@
           <t>FN5</t>
         </is>
       </c>
-      <c r="B54" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" s="6" t="n">
-        <v>0</v>
+      <c r="B54" s="6">
+        <f>'CROSS REFERENCE'!B9</f>
+        <v/>
+      </c>
+      <c r="C54" s="6">
+        <f>'CROSS REFERENCE'!C9</f>
+        <v/>
       </c>
       <c r="D54" s="6" t="n">
         <v>0</v>
@@ -3450,11 +3509,13 @@
           <t>FN6</t>
         </is>
       </c>
-      <c r="B55" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" s="6" t="n">
-        <v>0</v>
+      <c r="B55" s="6">
+        <f>'CROSS REFERENCE'!B9</f>
+        <v/>
+      </c>
+      <c r="C55" s="6">
+        <f>'CROSS REFERENCE'!C9</f>
+        <v/>
       </c>
       <c r="D55" s="6" t="n">
         <v>0</v>
@@ -3489,11 +3550,13 @@
           <t>FN7</t>
         </is>
       </c>
-      <c r="B56" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" s="6" t="n">
-        <v>0</v>
+      <c r="B56" s="6">
+        <f>'CROSS REFERENCE'!B9</f>
+        <v/>
+      </c>
+      <c r="C56" s="6">
+        <f>'CROSS REFERENCE'!C9</f>
+        <v/>
       </c>
       <c r="D56" s="6" t="n">
         <v>0</v>
@@ -3528,11 +3591,13 @@
           <t>FN8</t>
         </is>
       </c>
-      <c r="B57" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="6" t="n">
-        <v>0</v>
+      <c r="B57" s="6">
+        <f>'CROSS REFERENCE'!B9</f>
+        <v/>
+      </c>
+      <c r="C57" s="6">
+        <f>'CROSS REFERENCE'!C9</f>
+        <v/>
       </c>
       <c r="D57" s="6" t="n">
         <v>0</v>
@@ -3652,11 +3717,13 @@
           <t>FN1</t>
         </is>
       </c>
-      <c r="B64" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" s="6" t="n">
-        <v>0</v>
+      <c r="B64" s="6">
+        <f>'CROSS REFERENCE'!B10</f>
+        <v/>
+      </c>
+      <c r="C64" s="6">
+        <f>'CROSS REFERENCE'!C10</f>
+        <v/>
       </c>
       <c r="D64" s="6" t="n">
         <v>0</v>
@@ -3691,11 +3758,13 @@
           <t>FN2</t>
         </is>
       </c>
-      <c r="B65" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" s="6" t="n">
-        <v>0</v>
+      <c r="B65" s="6">
+        <f>'CROSS REFERENCE'!B10</f>
+        <v/>
+      </c>
+      <c r="C65" s="6">
+        <f>'CROSS REFERENCE'!C10</f>
+        <v/>
       </c>
       <c r="D65" s="6" t="n">
         <v>0</v>
@@ -3730,11 +3799,13 @@
           <t>FN3</t>
         </is>
       </c>
-      <c r="B66" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" s="6" t="n">
-        <v>0</v>
+      <c r="B66" s="6">
+        <f>'CROSS REFERENCE'!B10</f>
+        <v/>
+      </c>
+      <c r="C66" s="6">
+        <f>'CROSS REFERENCE'!C10</f>
+        <v/>
       </c>
       <c r="D66" s="6" t="n">
         <v>0</v>
@@ -3769,11 +3840,13 @@
           <t>FN4</t>
         </is>
       </c>
-      <c r="B67" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" s="6" t="n">
-        <v>0</v>
+      <c r="B67" s="6">
+        <f>'CROSS REFERENCE'!B10</f>
+        <v/>
+      </c>
+      <c r="C67" s="6">
+        <f>'CROSS REFERENCE'!C10</f>
+        <v/>
       </c>
       <c r="D67" s="6" t="n">
         <v>0</v>
@@ -3808,11 +3881,13 @@
           <t>FN5</t>
         </is>
       </c>
-      <c r="B68" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" s="6" t="n">
-        <v>0</v>
+      <c r="B68" s="6">
+        <f>'CROSS REFERENCE'!B10</f>
+        <v/>
+      </c>
+      <c r="C68" s="6">
+        <f>'CROSS REFERENCE'!C10</f>
+        <v/>
       </c>
       <c r="D68" s="6" t="n">
         <v>0</v>
@@ -3847,11 +3922,13 @@
           <t>FN6</t>
         </is>
       </c>
-      <c r="B69" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" s="6" t="n">
-        <v>0</v>
+      <c r="B69" s="6">
+        <f>'CROSS REFERENCE'!B10</f>
+        <v/>
+      </c>
+      <c r="C69" s="6">
+        <f>'CROSS REFERENCE'!C10</f>
+        <v/>
       </c>
       <c r="D69" s="6" t="n">
         <v>0</v>
@@ -3886,11 +3963,13 @@
           <t>FN7</t>
         </is>
       </c>
-      <c r="B70" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" s="6" t="n">
-        <v>0</v>
+      <c r="B70" s="6">
+        <f>'CROSS REFERENCE'!B10</f>
+        <v/>
+      </c>
+      <c r="C70" s="6">
+        <f>'CROSS REFERENCE'!C10</f>
+        <v/>
       </c>
       <c r="D70" s="6" t="n">
         <v>0</v>
@@ -3925,11 +4004,13 @@
           <t>FN8</t>
         </is>
       </c>
-      <c r="B71" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" s="6" t="n">
-        <v>0</v>
+      <c r="B71" s="6">
+        <f>'CROSS REFERENCE'!B10</f>
+        <v/>
+      </c>
+      <c r="C71" s="6">
+        <f>'CROSS REFERENCE'!C10</f>
+        <v/>
       </c>
       <c r="D71" s="6" t="n">
         <v>0</v>
@@ -4759,6 +4840,114 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CROSS-REFERENCE SUMMARY</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="28" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="B4" s="28" t="inlineStr">
+        <is>
+          <t>Production Plan</t>
+        </is>
+      </c>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>Sales Forecast</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Center</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>31200</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/dashboards_v2/Logistics_Dashboard.xlsx
+++ b/dashboards_v2/Logistics_Dashboard.xlsx
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>31200</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>0</v>
